--- a/rom_decoding_help.xlsx
+++ b/rom_decoding_help.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A514D828-3969-4056-8F2C-89BD6B5BCF15}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C94E8C-47B3-44E2-A4D5-293036B64688}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11505" xr2:uid="{7BDBAE7B-EB46-43A4-A1BB-B81F5EF1C868}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{7BDBAE7B-EB46-43A4-A1BB-B81F5EF1C868}"/>
   </bookViews>
   <sheets>
     <sheet name="ALU" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Instruction" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Command</t>
   </si>
@@ -146,6 +147,63 @@
   </si>
   <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>do nothing</t>
+  </si>
+  <si>
+    <t>R1 = R1 + R2</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t>R1 = R1 - R2</t>
+  </si>
+  <si>
+    <t>R1 = R1 + R2 + CF</t>
+  </si>
+  <si>
+    <t>R1 = R1 - R2 - CF</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R1 = R1 + 1</t>
+  </si>
+  <si>
+    <t>R1 = R1 - 1</t>
+  </si>
+  <si>
+    <t>R1 = R1 &amp;&amp; R2</t>
+  </si>
+  <si>
+    <t>R1 = ! R1</t>
+  </si>
+  <si>
+    <t>R1 = R1 || R2</t>
+  </si>
+  <si>
+    <t>R1 = R1 ^^ R2</t>
   </si>
 </sst>
 </file>
@@ -199,7 +257,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thick">
@@ -214,6 +272,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -241,17 +314,38 @@
     <tableColumn id="3" xr3:uid="{0C2647AA-8C67-40C0-982A-4F37B38B3C51}" name="enableCarryIn"/>
     <tableColumn id="7" xr3:uid="{0B7EDC55-3EB2-43E1-B67E-C0A58F5F514B}" name="enableALU"/>
     <tableColumn id="4" xr3:uid="{B6729293-2307-4AEC-A08A-9666E8E9EE8F}" name="CompAddress"/>
-    <tableColumn id="5" xr3:uid="{8129FC41-D2FB-493D-A8D8-7F433E82E710}" name="Binary" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{8129FC41-D2FB-493D-A8D8-7F433E82E710}" name="Binary" dataDxfId="4">
       <calculatedColumnFormula>"0"&amp;Table1[[#This Row],[isRightShift]]&amp;Table1[[#This Row],[ActivateCarryIn]]&amp;Table1[[#This Row],[enableALU]]&amp;Table1[[#This Row],[enableCarryIn]]&amp;DEC2BIN(Table1[[#This Row],[CompAddress]],3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{2FE61B84-7958-45B1-A056-82D54F04684E}" name="Hex" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{2FE61B84-7958-45B1-A056-82D54F04684E}" name="Hex" dataDxfId="3">
       <calculatedColumnFormula>BIN2HEX(Table1[[#This Row],[Binary]],2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3EEC661B-85B9-4B5A-9DC7-535757316F3F}" name="Index" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{3EEC661B-85B9-4B5A-9DC7-535757316F3F}" name="Index" dataDxfId="2">
       <calculatedColumnFormula>ROW()-2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3A2BF13C-828A-4D7D-B0A3-B326D17B9B47}" name="Table3" displayName="Table3" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{93CB0D0C-0EE8-4DB6-BAF9-62C68D38A818}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B627810F-ED95-48A4-A259-2D4EBB939476}" name="dec">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7F2D2282-79DD-4013-BF00-22E21C9A8CF3}" name="hex">
+      <calculatedColumnFormula>DEC2HEX(Table3[[#This Row],[dec]],2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{5FD24655-4A2B-490C-B44E-3A52615E9F03}" name="bin" dataDxfId="1">
+      <calculatedColumnFormula>DEC2BIN(Table3[[#This Row],[dec]],8)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{913C4B2E-5210-44F6-AB13-564FFAF425A2}" name="name" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{F74ED10D-69BB-49E2-B855-A3CF754022CF}" name="param"/>
+    <tableColumn id="6" xr3:uid="{035DEFBB-0C8C-44FA-A124-B81A1B4D6806}" name="comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -554,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E8AB37-6BAB-4C95-AEE1-D1BDD249CC1D}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1566,11 +1660,321 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A63CA3-EFC1-43D4-AB9A-8FE1B66FE341}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>01</v>
+      </c>
+      <c r="C2" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00000001</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A10" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>02</v>
+      </c>
+      <c r="C3" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00000010</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>03</v>
+      </c>
+      <c r="C4" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00000011</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>04</v>
+      </c>
+      <c r="C5" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00000100</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>05</v>
+      </c>
+      <c r="C6" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00000101</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>06</v>
+      </c>
+      <c r="C7" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00000110</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>07</v>
+      </c>
+      <c r="C8" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00000111</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>08</v>
+      </c>
+      <c r="C9" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00001000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>09</v>
+      </c>
+      <c r="C10" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00001001</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>0A</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00001010</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>0B</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00001011</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>DEC2HEX(Table3[[#This Row],[dec]],2)</f>
+        <v>0C</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>DEC2BIN(Table3[[#This Row],[dec]],8)</f>
+        <v>00001100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DF15D5-E732-46AD-9DAA-27EA178FBE91}">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A1:A30"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
